--- a/Mass_Props_Simulation/DynamicSims.xlsx
+++ b/Mass_Props_Simulation/DynamicSims.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Motor-Pend" sheetId="19" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="WW-tests" sheetId="18" r:id="rId5"/>
     <sheet name="WhobbleWheel" sheetId="17" r:id="rId6"/>
     <sheet name="WW-mass_accel" sheetId="20" r:id="rId7"/>
+    <sheet name="Cart1" sheetId="21" r:id="rId8"/>
+    <sheet name="VeloRamp" sheetId="23" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="471">
   <si>
     <t>X</t>
   </si>
@@ -1368,6 +1370,72 @@
   <si>
     <t>-91.4636"</t>
   </si>
+  <si>
+    <t xml:space="preserve">ECHO: </t>
+  </si>
+  <si>
+    <t>Xpend</t>
+  </si>
+  <si>
+    <t>Ypend</t>
+  </si>
+  <si>
+    <t>rotPend-rad</t>
+  </si>
+  <si>
+    <t>XVpend</t>
+  </si>
+  <si>
+    <t>YVpend</t>
+  </si>
+  <si>
+    <t>rotVeloPend</t>
+  </si>
+  <si>
+    <t>XApend</t>
+  </si>
+  <si>
+    <t>YApend</t>
+  </si>
+  <si>
+    <t>rot accel Pend</t>
+  </si>
+  <si>
+    <t>SetPointDeg</t>
+  </si>
+  <si>
+    <t>Xwheel</t>
+  </si>
+  <si>
+    <t>Ywheel</t>
+  </si>
+  <si>
+    <t>Twheel</t>
+  </si>
+  <si>
+    <t>XVwheel</t>
+  </si>
+  <si>
+    <t>YVwheel</t>
+  </si>
+  <si>
+    <t>TVwheel</t>
+  </si>
+  <si>
+    <t>XAwheel</t>
+  </si>
+  <si>
+    <t>YAwheel</t>
+  </si>
+  <si>
+    <t>TAwheel"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 999]</t>
+  </si>
+  <si>
+    <t>Velocity profile for an approximate Triangle Wave acceleration profile</t>
+  </si>
 </sst>
 </file>
 
@@ -1523,12 +1591,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2802,8 +2870,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204053120"/>
-        <c:axId val="204054912"/>
+        <c:axId val="230440960"/>
+        <c:axId val="230442496"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4059,11 +4127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204057984"/>
-        <c:axId val="204056448"/>
+        <c:axId val="230445824"/>
+        <c:axId val="230444032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204053120"/>
+        <c:axId val="230440960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,12 +4142,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204054912"/>
+        <c:crossAx val="230442496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204054912"/>
+        <c:axId val="230442496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,12 +4158,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204053120"/>
+        <c:crossAx val="230440960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204056448"/>
+        <c:axId val="230444032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,12 +4173,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204057984"/>
+        <c:crossAx val="230445824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204057984"/>
+        <c:axId val="230445824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,7 +4188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204056448"/>
+        <c:crossAx val="230444032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4289,11 +4357,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224161152"/>
-        <c:axId val="224163328"/>
+        <c:axId val="230572800"/>
+        <c:axId val="230574720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224161152"/>
+        <c:axId val="230572800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -4333,13 +4401,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224163328"/>
+        <c:crossAx val="230574720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224163328"/>
+        <c:axId val="230574720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4368,7 +4436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224161152"/>
+        <c:crossAx val="230572800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5236,8 +5304,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224027392"/>
-        <c:axId val="224028928"/>
+        <c:axId val="231020032"/>
+        <c:axId val="231021568"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6896,11 +6964,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="224032256"/>
-        <c:axId val="224030720"/>
+        <c:axId val="231028992"/>
+        <c:axId val="231027456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="224027392"/>
+        <c:axId val="231020032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6911,12 +6979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224028928"/>
+        <c:crossAx val="231021568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224028928"/>
+        <c:axId val="231021568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6927,12 +6995,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224027392"/>
+        <c:crossAx val="231020032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224030720"/>
+        <c:axId val="231027456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6942,12 +7010,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224032256"/>
+        <c:crossAx val="231028992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224032256"/>
+        <c:axId val="231028992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6957,7 +7025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224030720"/>
+        <c:crossAx val="231027456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7004,7 +7072,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8252,11 +8319,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229536512"/>
-        <c:axId val="229526528"/>
+        <c:axId val="231062144"/>
+        <c:axId val="230826368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229536512"/>
+        <c:axId val="231062144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8267,12 +8334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229526528"/>
+        <c:crossAx val="230826368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229526528"/>
+        <c:axId val="230826368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8283,7 +8350,1420 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229536512"/>
+        <c:crossAx val="231062144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cart1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XVwheel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cart1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cart1!$Q$2:$Q$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.678956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98852300000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3051999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.84745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.13578</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4547699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8133900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.21848</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6746500000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1851099999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7519400000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3764900000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1223700000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6135200000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1562999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8048799999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.5078300000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.2529299999999992</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.0244</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.8126</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.610200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.411899999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.213800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.013400000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.8085</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.597899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16.380500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.1556</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.922799999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18.681799999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.432400000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.174399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.907900000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.6327</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.349</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23.056699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cart1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SetPointDeg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cart1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cart1!$M$2:$M$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230893440"/>
+        <c:axId val="230894976"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cart1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AppliedTorq</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cart1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cart1!$L$2:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.120800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.578200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.512099999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.842500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.056600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.054499999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.0364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.421000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>83.786000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.8245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.31399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115.092</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126.04300000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37.081499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.615700000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>116.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>129.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>137.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>143.64400000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>147.297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>149.434</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>150.476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>150.72800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>150.41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>149.684</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>148.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>147.446</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>146.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>144.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>143.08500000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141.512</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>139.91300000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>138.30199999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>136.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>135.07400000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133.46799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230898304"/>
+        <c:axId val="230896768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="230893440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230894976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="230894976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230893440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="230896768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230898304"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="230898304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230896768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0657885946074923E-2"/>
+                  <c:y val="5.1816738097611219E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VeloRamp!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VeloRamp!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176164864"/>
+        <c:axId val="176163072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176164864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176163072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="176163072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="176164864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.25607597232164159"/>
+                  <c:y val="5.1141632612379147E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VeloRamp!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VeloRamp!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="170170624"/>
+        <c:axId val="170205184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170170624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170205184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="170205184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170170624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.54082328799809121"/>
+          <c:y val="0.40520522276487586"/>
+          <c:w val="0.21190398472918157"/>
+          <c:h val="0.12207874015748031"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18406394655213554"/>
+                  <c:y val="-0.30513306089903319"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>VeloRamp!$C$9:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>VeloRamp!$D$9:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="170062976"/>
+        <c:axId val="175288704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170062976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="175288704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="175288704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="170062976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8481,6 +9961,140 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>81642</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>77559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17149,20 +18763,20 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -28309,7 +29923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
@@ -28354,43 +29968,43 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="K9" s="17" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="K9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -28414,7 +30028,7 @@
       <c r="G11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>41</v>
       </c>
       <c r="J11" t="s">
@@ -28448,7 +30062,7 @@
         <f>A12+90</f>
         <v>179</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="19">
         <f>(J12*2)/8</f>
         <v>3.5</v>
       </c>
@@ -28474,7 +30088,7 @@
         <f t="shared" ref="G13:G22" si="0">A13+90</f>
         <v>170</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="18"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9">
@@ -28500,7 +30114,7 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="18"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -28523,7 +30137,7 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="18">
         <v>1.37</v>
       </c>
       <c r="J15" t="s">
@@ -28550,7 +30164,7 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="19">
         <f>(J16*2)/8</f>
         <v>1.5475000000000001</v>
       </c>
@@ -28581,7 +30195,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="19">
         <f>(J17*2)/8</f>
         <v>1.2875000000000001</v>
       </c>
@@ -28609,7 +30223,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="18"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9"/>
       <c r="M18" s="14"/>
@@ -28629,7 +30243,7 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9"/>
       <c r="M19" s="14"/>
@@ -28652,7 +30266,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="19">
         <f>(J20*2)/8</f>
         <v>1.0525</v>
       </c>
@@ -49265,4 +50879,3166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W42"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z47" sqref="Z47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>459</v>
+      </c>
+      <c r="N1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P1" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R1" t="s">
+        <v>464</v>
+      </c>
+      <c r="S1" t="s">
+        <v>465</v>
+      </c>
+      <c r="T1" t="s">
+        <v>466</v>
+      </c>
+      <c r="U1" t="s">
+        <v>467</v>
+      </c>
+      <c r="V1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-3.1073</v>
+      </c>
+      <c r="E2">
+        <v>-1.5708</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-90</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>-1.5708</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3">
+        <v>0.02</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-3.1073</v>
+      </c>
+      <c r="E3">
+        <v>-1.5708</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-90</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>-1.5708</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4">
+        <v>0.04</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-3.1073</v>
+      </c>
+      <c r="E4">
+        <v>-1.5708</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>-90</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-1.5708</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5">
+        <v>0.06</v>
+      </c>
+      <c r="C5">
+        <v>1.4475699999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>-3.1073</v>
+      </c>
+      <c r="E5">
+        <v>-1.5705100000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.72378699999999996</v>
+      </c>
+      <c r="G5" s="16">
+        <v>6.4680900000000001E-6</v>
+      </c>
+      <c r="H5">
+        <v>1.44277E-2</v>
+      </c>
+      <c r="I5">
+        <v>36.189300000000003</v>
+      </c>
+      <c r="J5">
+        <v>3.2340400000000001E-4</v>
+      </c>
+      <c r="K5">
+        <v>0.72138400000000003</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>-85</v>
+      </c>
+      <c r="N5">
+        <v>1.35791E-2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-1.5725499999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.678956</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>-8.7607199999999996E-2</v>
+      </c>
+      <c r="T5">
+        <v>33.947800000000001</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>-4.3803599999999996</v>
+      </c>
+      <c r="W5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>3.5784200000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>-3.1073</v>
+      </c>
+      <c r="E6">
+        <v>-1.5700099999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.06542</v>
+      </c>
+      <c r="G6">
+        <v>4.1221999999999999E-5</v>
+      </c>
+      <c r="H6">
+        <v>2.4748599999999999E-2</v>
+      </c>
+      <c r="I6">
+        <v>17.081900000000001</v>
+      </c>
+      <c r="J6">
+        <v>1.7377E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.51604499999999998</v>
+      </c>
+      <c r="L6">
+        <v>75.120800000000003</v>
+      </c>
+      <c r="M6">
+        <v>-85</v>
+      </c>
+      <c r="N6">
+        <v>3.33496E-2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>-1.5750999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.98852300000000004</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>-0.127551</v>
+      </c>
+      <c r="T6">
+        <v>15.478400000000001</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>-1.9972099999999999</v>
+      </c>
+      <c r="W6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>6.3881999999999994E-2</v>
+      </c>
+      <c r="D7">
+        <v>-3.1072899999999999</v>
+      </c>
+      <c r="E7">
+        <v>-1.5693699999999999</v>
+      </c>
+      <c r="F7">
+        <v>1.40489</v>
+      </c>
+      <c r="G7">
+        <v>1.10099E-4</v>
+      </c>
+      <c r="H7">
+        <v>3.2084000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <v>16.973400000000002</v>
+      </c>
+      <c r="J7">
+        <v>3.4438400000000001E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.36676900000000001</v>
+      </c>
+      <c r="L7">
+        <v>60.578200000000002</v>
+      </c>
+      <c r="M7">
+        <v>-85</v>
+      </c>
+      <c r="N7">
+        <v>5.9453499999999999E-2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-1.57847</v>
+      </c>
+      <c r="Q7">
+        <v>1.3051999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>-0.16841300000000001</v>
+      </c>
+      <c r="T7">
+        <v>15.8337</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>-2.0430600000000001</v>
+      </c>
+      <c r="W7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8">
+        <v>0.12</v>
+      </c>
+      <c r="C8">
+        <v>9.7686899999999993E-2</v>
+      </c>
+      <c r="D8">
+        <v>-3.1072899999999999</v>
+      </c>
+      <c r="E8">
+        <v>-1.56863</v>
+      </c>
+      <c r="F8">
+        <v>1.69024</v>
+      </c>
+      <c r="G8">
+        <v>2.08075E-4</v>
+      </c>
+      <c r="H8">
+        <v>3.7249499999999998E-2</v>
+      </c>
+      <c r="I8">
+        <v>14.2675</v>
+      </c>
+      <c r="J8">
+        <v>4.89881E-3</v>
+      </c>
+      <c r="K8">
+        <v>0.25827800000000001</v>
+      </c>
+      <c r="L8">
+        <v>53.512099999999997</v>
+      </c>
+      <c r="M8">
+        <v>-85</v>
+      </c>
+      <c r="N8">
+        <v>9.0943499999999997E-2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-1.58253</v>
+      </c>
+      <c r="Q8">
+        <v>1.5745</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>-0.20316100000000001</v>
+      </c>
+      <c r="T8">
+        <v>13.465</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>-1.73742</v>
+      </c>
+      <c r="W8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.13717399999999999</v>
+      </c>
+      <c r="D9">
+        <v>-3.1072799999999998</v>
+      </c>
+      <c r="E9">
+        <v>-1.5678099999999999</v>
+      </c>
+      <c r="F9">
+        <v>1.97435</v>
+      </c>
+      <c r="G9">
+        <v>3.2721600000000002E-4</v>
+      </c>
+      <c r="H9">
+        <v>4.0838600000000003E-2</v>
+      </c>
+      <c r="I9">
+        <v>14.205299999999999</v>
+      </c>
+      <c r="J9">
+        <v>5.9570300000000003E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.179456</v>
+      </c>
+      <c r="L9">
+        <v>51.842500000000001</v>
+      </c>
+      <c r="M9">
+        <v>-85</v>
+      </c>
+      <c r="N9">
+        <v>0.12789200000000001</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>-1.5872999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>1.84745</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>-0.23838100000000001</v>
+      </c>
+      <c r="T9">
+        <v>13.6477</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>-1.7609900000000001</v>
+      </c>
+      <c r="W9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10">
+        <v>0.16</v>
+      </c>
+      <c r="C10">
+        <v>0.18257899999999999</v>
+      </c>
+      <c r="D10">
+        <v>-3.1072700000000002</v>
+      </c>
+      <c r="E10">
+        <v>-1.56694</v>
+      </c>
+      <c r="F10">
+        <v>2.27027</v>
+      </c>
+      <c r="G10">
+        <v>4.5993800000000001E-4</v>
+      </c>
+      <c r="H10">
+        <v>4.3282899999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>14.7963</v>
+      </c>
+      <c r="J10">
+        <v>6.6360999999999998E-3</v>
+      </c>
+      <c r="K10">
+        <v>0.12221600000000001</v>
+      </c>
+      <c r="L10">
+        <v>54.056600000000003</v>
+      </c>
+      <c r="M10">
+        <v>-85</v>
+      </c>
+      <c r="N10">
+        <v>0.17060800000000001</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>-1.5928100000000001</v>
+      </c>
+      <c r="Q10">
+        <v>2.13578</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>-0.27558500000000002</v>
+      </c>
+      <c r="T10">
+        <v>14.416600000000001</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>-1.8602000000000001</v>
+      </c>
+      <c r="W10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11">
+        <v>0.18</v>
+      </c>
+      <c r="C11">
+        <v>0.23446500000000001</v>
+      </c>
+      <c r="D11">
+        <v>-3.1072600000000001</v>
+      </c>
+      <c r="E11">
+        <v>-1.5660499999999999</v>
+      </c>
+      <c r="F11">
+        <v>2.5942799999999999</v>
+      </c>
+      <c r="G11">
+        <v>6.0009899999999999E-4</v>
+      </c>
+      <c r="H11">
+        <v>4.4896499999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>16.200199999999999</v>
+      </c>
+      <c r="J11">
+        <v>7.0080400000000001E-3</v>
+      </c>
+      <c r="K11">
+        <v>8.0675700000000003E-2</v>
+      </c>
+      <c r="L11">
+        <v>59.054499999999997</v>
+      </c>
+      <c r="M11">
+        <v>-85</v>
+      </c>
+      <c r="N11">
+        <v>0.21970400000000001</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>-1.5991500000000001</v>
+      </c>
+      <c r="Q11">
+        <v>2.4547699999999999</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>-0.316745</v>
+      </c>
+      <c r="T11">
+        <v>15.9495</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>-2.0579999999999998</v>
+      </c>
+      <c r="W11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12">
+        <v>0.2</v>
+      </c>
+      <c r="C12">
+        <v>0.29358600000000001</v>
+      </c>
+      <c r="D12">
+        <v>-3.1072500000000001</v>
+      </c>
+      <c r="E12">
+        <v>-1.5651299999999999</v>
+      </c>
+      <c r="F12">
+        <v>2.9560399999999998</v>
+      </c>
+      <c r="G12">
+        <v>7.4314200000000002E-4</v>
+      </c>
+      <c r="H12">
+        <v>4.59076E-2</v>
+      </c>
+      <c r="I12">
+        <v>18.087900000000001</v>
+      </c>
+      <c r="J12">
+        <v>7.1522000000000001E-3</v>
+      </c>
+      <c r="K12">
+        <v>5.0555700000000002E-2</v>
+      </c>
+      <c r="L12">
+        <v>66.0364</v>
+      </c>
+      <c r="M12">
+        <v>-85</v>
+      </c>
+      <c r="N12">
+        <v>0.27597100000000002</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-1.6064099999999999</v>
+      </c>
+      <c r="Q12">
+        <v>2.8133900000000001</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>-0.36301800000000001</v>
+      </c>
+      <c r="T12">
+        <v>17.930900000000001</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>-2.31366</v>
+      </c>
+      <c r="W12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B13">
+        <v>0.22</v>
+      </c>
+      <c r="C13">
+        <v>0.360844</v>
+      </c>
+      <c r="D13">
+        <v>-3.1072299999999999</v>
+      </c>
+      <c r="E13">
+        <v>-1.5642</v>
+      </c>
+      <c r="F13">
+        <v>3.3629099999999998</v>
+      </c>
+      <c r="G13">
+        <v>8.8588899999999995E-4</v>
+      </c>
+      <c r="H13">
+        <v>4.64824E-2</v>
+      </c>
+      <c r="I13">
+        <v>20.343699999999998</v>
+      </c>
+      <c r="J13">
+        <v>7.1373299999999999E-3</v>
+      </c>
+      <c r="K13">
+        <v>2.8742500000000001E-2</v>
+      </c>
+      <c r="L13">
+        <v>74.421000000000006</v>
+      </c>
+      <c r="M13">
+        <v>-85</v>
+      </c>
+      <c r="N13">
+        <v>0.340341</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>-1.6147100000000001</v>
+      </c>
+      <c r="Q13">
+        <v>3.21848</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>-0.41528700000000002</v>
+      </c>
+      <c r="T13">
+        <v>20.2544</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>-2.61347</v>
+      </c>
+      <c r="W13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14">
+        <v>0.24</v>
+      </c>
+      <c r="C14">
+        <v>0.43724200000000002</v>
+      </c>
+      <c r="D14">
+        <v>-3.1072099999999998</v>
+      </c>
+      <c r="E14">
+        <v>-1.5632600000000001</v>
+      </c>
+      <c r="F14">
+        <v>3.81989</v>
+      </c>
+      <c r="G14">
+        <v>1.0262299999999999E-3</v>
+      </c>
+      <c r="H14">
+        <v>4.6741900000000003E-2</v>
+      </c>
+      <c r="I14">
+        <v>22.8491</v>
+      </c>
+      <c r="J14">
+        <v>7.0170500000000004E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.29712E-2</v>
+      </c>
+      <c r="L14">
+        <v>83.786000000000001</v>
+      </c>
+      <c r="M14">
+        <v>-85</v>
+      </c>
+      <c r="N14">
+        <v>0.41383399999999998</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>-1.62419</v>
+      </c>
+      <c r="Q14">
+        <v>3.6746500000000002</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>-0.47414899999999999</v>
+      </c>
+      <c r="T14">
+        <v>22.808800000000002</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>-2.9430700000000001</v>
+      </c>
+      <c r="W14" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15">
+        <v>0.26</v>
+      </c>
+      <c r="C15">
+        <v>0.52385099999999996</v>
+      </c>
+      <c r="D15">
+        <v>-3.1071800000000001</v>
+      </c>
+      <c r="E15">
+        <v>-1.56233</v>
+      </c>
+      <c r="F15">
+        <v>4.3304400000000003</v>
+      </c>
+      <c r="G15">
+        <v>1.1628400000000001E-3</v>
+      </c>
+      <c r="H15">
+        <v>4.6773700000000001E-2</v>
+      </c>
+      <c r="I15">
+        <v>25.5276</v>
+      </c>
+      <c r="J15">
+        <v>6.8305800000000002E-3</v>
+      </c>
+      <c r="K15">
+        <v>1.5941200000000001E-3</v>
+      </c>
+      <c r="L15">
+        <v>93.8245</v>
+      </c>
+      <c r="M15">
+        <v>-85</v>
+      </c>
+      <c r="N15">
+        <v>0.49753599999999998</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>-1.6349899999999999</v>
+      </c>
+      <c r="Q15">
+        <v>4.1851099999999999</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>-0.54001399999999999</v>
+      </c>
+      <c r="T15">
+        <v>25.5227</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>-3.2932600000000001</v>
+      </c>
+      <c r="W15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.62178800000000001</v>
+      </c>
+      <c r="D16">
+        <v>-3.1071599999999999</v>
+      </c>
+      <c r="E16">
+        <v>-1.5613900000000001</v>
+      </c>
+      <c r="F16">
+        <v>4.8968699999999998</v>
+      </c>
+      <c r="G16">
+        <v>1.29495E-3</v>
+      </c>
+      <c r="H16">
+        <v>4.6642000000000003E-2</v>
+      </c>
+      <c r="I16">
+        <v>28.321200000000001</v>
+      </c>
+      <c r="J16">
+        <v>6.6053800000000001E-3</v>
+      </c>
+      <c r="K16">
+        <v>-6.58743E-3</v>
+      </c>
+      <c r="L16">
+        <v>104.31399999999999</v>
+      </c>
+      <c r="M16">
+        <v>-85</v>
+      </c>
+      <c r="N16">
+        <v>0.59257499999999996</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>-1.6472599999999999</v>
+      </c>
+      <c r="Q16">
+        <v>4.7519400000000003</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>-0.61315399999999998</v>
+      </c>
+      <c r="T16">
+        <v>28.341699999999999</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>-3.657</v>
+      </c>
+      <c r="W16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>0.73220099999999999</v>
+      </c>
+      <c r="D17">
+        <v>-3.1071300000000002</v>
+      </c>
+      <c r="E17">
+        <v>-1.56047</v>
+      </c>
+      <c r="F17">
+        <v>5.5206400000000002</v>
+      </c>
+      <c r="G17">
+        <v>1.4221500000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>4.63931E-2</v>
+      </c>
+      <c r="I17">
+        <v>31.188400000000001</v>
+      </c>
+      <c r="J17">
+        <v>6.3600000000000002E-3</v>
+      </c>
+      <c r="K17">
+        <v>-1.2445400000000001E-2</v>
+      </c>
+      <c r="L17">
+        <v>115.092</v>
+      </c>
+      <c r="M17">
+        <v>-85</v>
+      </c>
+      <c r="N17">
+        <v>0.70010499999999998</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>-1.66113</v>
+      </c>
+      <c r="Q17">
+        <v>5.3764900000000004</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>-0.69374000000000002</v>
+      </c>
+      <c r="T17">
+        <v>31.2271</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>-4.0293000000000001</v>
+      </c>
+      <c r="W17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18">
+        <v>0.32</v>
+      </c>
+      <c r="C18">
+        <v>0.85625300000000004</v>
+      </c>
+      <c r="D18">
+        <v>-3.1071</v>
+      </c>
+      <c r="E18">
+        <v>-1.55955</v>
+      </c>
+      <c r="F18">
+        <v>6.20261</v>
+      </c>
+      <c r="G18">
+        <v>1.5442800000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>4.6060799999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>34.098799999999997</v>
+      </c>
+      <c r="J18">
+        <v>6.1065599999999996E-3</v>
+      </c>
+      <c r="K18">
+        <v>-1.66141E-2</v>
+      </c>
+      <c r="L18">
+        <v>126.04300000000001</v>
+      </c>
+      <c r="M18">
+        <v>-85</v>
+      </c>
+      <c r="N18">
+        <v>0.821295</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>-1.6767700000000001</v>
+      </c>
+      <c r="Q18">
+        <v>6.0594999999999999</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>-0.78187099999999998</v>
+      </c>
+      <c r="T18">
+        <v>34.150500000000001</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>-4.4065200000000004</v>
+      </c>
+      <c r="W18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19">
+        <v>0.34</v>
+      </c>
+      <c r="C19">
+        <v>0.98064200000000001</v>
+      </c>
+      <c r="D19">
+        <v>-3.1070799999999998</v>
+      </c>
+      <c r="E19">
+        <v>-1.5589200000000001</v>
+      </c>
+      <c r="F19">
+        <v>6.2194500000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.1224900000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>3.1241999999999999E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.84165500000000004</v>
+      </c>
+      <c r="J19">
+        <v>-2.1089500000000001E-2</v>
+      </c>
+      <c r="K19">
+        <v>-0.74093900000000001</v>
+      </c>
+      <c r="L19">
+        <v>37.081499999999998</v>
+      </c>
+      <c r="M19">
+        <v>-90</v>
+      </c>
+      <c r="N19">
+        <v>0.94374199999999997</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>-1.6925699999999999</v>
+      </c>
+      <c r="Q19">
+        <v>6.1223700000000001</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>-0.78998400000000002</v>
+      </c>
+      <c r="T19">
+        <v>3.1438799999999998</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>-0.40566200000000002</v>
+      </c>
+      <c r="W19" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B20">
+        <v>0.36</v>
+      </c>
+      <c r="C20">
+        <v>1.11419</v>
+      </c>
+      <c r="D20">
+        <v>-3.1070600000000002</v>
+      </c>
+      <c r="E20">
+        <v>-1.5585100000000001</v>
+      </c>
+      <c r="F20">
+        <v>6.6771799999999999</v>
+      </c>
+      <c r="G20">
+        <v>7.6908100000000002E-4</v>
+      </c>
+      <c r="H20">
+        <v>2.0489E-2</v>
+      </c>
+      <c r="I20">
+        <v>22.886900000000001</v>
+      </c>
+      <c r="J20">
+        <v>-1.7670499999999999E-2</v>
+      </c>
+      <c r="K20">
+        <v>-0.53764900000000004</v>
+      </c>
+      <c r="L20">
+        <v>73.025599999999997</v>
+      </c>
+      <c r="M20">
+        <v>-90</v>
+      </c>
+      <c r="N20">
+        <v>1.0760099999999999</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>-1.70964</v>
+      </c>
+      <c r="Q20">
+        <v>6.6135200000000003</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>-0.85335799999999995</v>
+      </c>
+      <c r="T20">
+        <v>24.557500000000001</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>-3.1686999999999999</v>
+      </c>
+      <c r="W20" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21">
+        <v>0.38</v>
+      </c>
+      <c r="C21">
+        <v>1.2581</v>
+      </c>
+      <c r="D21">
+        <v>-3.1070500000000001</v>
+      </c>
+      <c r="E21">
+        <v>-1.55826</v>
+      </c>
+      <c r="F21">
+        <v>7.1957399999999998</v>
+      </c>
+      <c r="G21">
+        <v>4.8955500000000002E-4</v>
+      </c>
+      <c r="H21">
+        <v>1.2693599999999999E-2</v>
+      </c>
+      <c r="I21">
+        <v>25.927700000000002</v>
+      </c>
+      <c r="J21">
+        <v>-1.3976300000000001E-2</v>
+      </c>
+      <c r="K21">
+        <v>-0.38977400000000001</v>
+      </c>
+      <c r="L21">
+        <v>98.615700000000004</v>
+      </c>
+      <c r="M21">
+        <v>-90</v>
+      </c>
+      <c r="N21">
+        <v>1.2191399999999999</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>-1.7281</v>
+      </c>
+      <c r="Q21">
+        <v>7.1562999999999999</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>-0.92339300000000002</v>
+      </c>
+      <c r="T21">
+        <v>27.1388</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>-3.5017800000000001</v>
+      </c>
+      <c r="W21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>449</v>
+      </c>
+      <c r="B22">
+        <v>0.4</v>
+      </c>
+      <c r="C22">
+        <v>1.4146399999999999</v>
+      </c>
+      <c r="D22">
+        <v>-3.1070500000000001</v>
+      </c>
+      <c r="E22">
+        <v>-1.5581199999999999</v>
+      </c>
+      <c r="F22">
+        <v>7.8267800000000003</v>
+      </c>
+      <c r="G22">
+        <v>2.7619500000000002E-4</v>
+      </c>
+      <c r="H22">
+        <v>7.0492799999999998E-3</v>
+      </c>
+      <c r="I22">
+        <v>31.552199999999999</v>
+      </c>
+      <c r="J22">
+        <v>-1.0668E-2</v>
+      </c>
+      <c r="K22">
+        <v>-0.28221400000000002</v>
+      </c>
+      <c r="L22">
+        <v>116.68</v>
+      </c>
+      <c r="M22">
+        <v>-90</v>
+      </c>
+      <c r="N22">
+        <v>1.37524</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>-1.7482500000000001</v>
+      </c>
+      <c r="Q22">
+        <v>7.8048799999999998</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>-1.00708</v>
+      </c>
+      <c r="T22">
+        <v>32.429099999999998</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>-4.1844000000000001</v>
+      </c>
+      <c r="W22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>449</v>
+      </c>
+      <c r="B23">
+        <v>0.42</v>
+      </c>
+      <c r="C23">
+        <v>1.5849800000000001</v>
+      </c>
+      <c r="D23">
+        <v>-3.10704</v>
+      </c>
+      <c r="E23">
+        <v>-1.55806</v>
+      </c>
+      <c r="F23">
+        <v>8.5170600000000007</v>
+      </c>
+      <c r="G23">
+        <v>1.17277E-4</v>
+      </c>
+      <c r="H23">
+        <v>2.9696499999999999E-3</v>
+      </c>
+      <c r="I23">
+        <v>34.5137</v>
+      </c>
+      <c r="J23">
+        <v>-7.9458900000000006E-3</v>
+      </c>
+      <c r="K23">
+        <v>-0.203981</v>
+      </c>
+      <c r="L23">
+        <v>129.27699999999999</v>
+      </c>
+      <c r="M23">
+        <v>-90</v>
+      </c>
+      <c r="N23">
+        <v>1.54539</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>-1.7702</v>
+      </c>
+      <c r="Q23">
+        <v>8.5078300000000002</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>-1.09778</v>
+      </c>
+      <c r="T23">
+        <v>35.147500000000001</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>-4.5351600000000003</v>
+      </c>
+      <c r="W23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24">
+        <v>0.44</v>
+      </c>
+      <c r="C24">
+        <v>1.7700400000000001</v>
+      </c>
+      <c r="D24">
+        <v>-3.10704</v>
+      </c>
+      <c r="E24">
+        <v>-1.55806</v>
+      </c>
+      <c r="F24">
+        <v>9.2530199999999994</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.10718E-6</v>
+      </c>
+      <c r="H24">
+        <v>2.7969800000000001E-5</v>
+      </c>
+      <c r="I24">
+        <v>36.798299999999998</v>
+      </c>
+      <c r="J24">
+        <v>-5.8085100000000002E-3</v>
+      </c>
+      <c r="K24">
+        <v>-0.14708399999999999</v>
+      </c>
+      <c r="L24">
+        <v>137.90199999999999</v>
+      </c>
+      <c r="M24">
+        <v>-90</v>
+      </c>
+      <c r="N24">
+        <v>1.73045</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>-1.7940799999999999</v>
+      </c>
+      <c r="Q24">
+        <v>9.2529299999999992</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>-1.1939299999999999</v>
+      </c>
+      <c r="T24">
+        <v>37.255299999999998</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>-4.8071299999999999</v>
+      </c>
+      <c r="W24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>449</v>
+      </c>
+      <c r="B25">
+        <v>0.46</v>
+      </c>
+      <c r="C25">
+        <v>1.9703999999999999</v>
+      </c>
+      <c r="D25">
+        <v>-3.1070500000000001</v>
+      </c>
+      <c r="E25">
+        <v>-1.5581</v>
+      </c>
+      <c r="F25">
+        <v>10.017899999999999</v>
+      </c>
+      <c r="G25">
+        <v>-8.2448700000000002E-5</v>
+      </c>
+      <c r="H25">
+        <v>-2.0861899999999999E-3</v>
+      </c>
+      <c r="I25">
+        <v>38.243499999999997</v>
+      </c>
+      <c r="J25">
+        <v>-4.1777899999999998E-3</v>
+      </c>
+      <c r="K25">
+        <v>-0.105708</v>
+      </c>
+      <c r="L25">
+        <v>143.64400000000001</v>
+      </c>
+      <c r="M25">
+        <v>-90</v>
+      </c>
+      <c r="N25">
+        <v>1.9309400000000001</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>-1.81995</v>
+      </c>
+      <c r="Q25">
+        <v>10.0244</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>-1.2934699999999999</v>
+      </c>
+      <c r="T25">
+        <v>38.572000000000003</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>-4.9770300000000001</v>
+      </c>
+      <c r="W25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26">
+        <v>0.48</v>
+      </c>
+      <c r="C26">
+        <v>2.18642</v>
+      </c>
+      <c r="D26">
+        <v>-3.1070500000000001</v>
+      </c>
+      <c r="E26">
+        <v>-1.5581700000000001</v>
+      </c>
+      <c r="F26">
+        <v>10.801399999999999</v>
+      </c>
+      <c r="G26">
+        <v>-1.4158700000000001E-4</v>
+      </c>
+      <c r="H26">
+        <v>-3.5986600000000001E-3</v>
+      </c>
+      <c r="I26">
+        <v>39.176499999999997</v>
+      </c>
+      <c r="J26">
+        <v>-2.9569399999999999E-3</v>
+      </c>
+      <c r="K26">
+        <v>-7.5623399999999993E-2</v>
+      </c>
+      <c r="L26">
+        <v>147.297</v>
+      </c>
+      <c r="M26">
+        <v>-90</v>
+      </c>
+      <c r="N26">
+        <v>2.1471900000000002</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>-1.84785</v>
+      </c>
+      <c r="Q26">
+        <v>10.8126</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>-1.39517</v>
+      </c>
+      <c r="T26">
+        <v>39.411499999999997</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>-5.08535</v>
+      </c>
+      <c r="W26" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>2.4183400000000002</v>
+      </c>
+      <c r="D27">
+        <v>-3.1070500000000001</v>
+      </c>
+      <c r="E27">
+        <v>-1.55826</v>
+      </c>
+      <c r="F27">
+        <v>11.595700000000001</v>
+      </c>
+      <c r="G27">
+        <v>-1.82683E-4</v>
+      </c>
+      <c r="H27">
+        <v>-4.6737100000000002E-3</v>
+      </c>
+      <c r="I27">
+        <v>39.7117</v>
+      </c>
+      <c r="J27">
+        <v>-2.0547999999999999E-3</v>
+      </c>
+      <c r="K27">
+        <v>-5.3752500000000002E-2</v>
+      </c>
+      <c r="L27">
+        <v>149.434</v>
+      </c>
+      <c r="M27">
+        <v>-90</v>
+      </c>
+      <c r="N27">
+        <v>2.3793899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>-1.87781</v>
+      </c>
+      <c r="Q27">
+        <v>11.610200000000001</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>-1.4980899999999999</v>
+      </c>
+      <c r="T27">
+        <v>39.878700000000002</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>-5.1456400000000002</v>
+      </c>
+      <c r="W27" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B28">
+        <v>0.52</v>
+      </c>
+      <c r="C28">
+        <v>2.6662400000000002</v>
+      </c>
+      <c r="D28">
+        <v>-3.1070600000000002</v>
+      </c>
+      <c r="E28">
+        <v>-1.55837</v>
+      </c>
+      <c r="F28">
+        <v>12.395</v>
+      </c>
+      <c r="G28">
+        <v>-2.10573E-4</v>
+      </c>
+      <c r="H28">
+        <v>-5.4308500000000001E-3</v>
+      </c>
+      <c r="I28">
+        <v>39.9666</v>
+      </c>
+      <c r="J28">
+        <v>-1.39449E-3</v>
+      </c>
+      <c r="K28">
+        <v>-3.7857099999999998E-2</v>
+      </c>
+      <c r="L28">
+        <v>150.476</v>
+      </c>
+      <c r="M28">
+        <v>-90</v>
+      </c>
+      <c r="N28">
+        <v>2.6276299999999999</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>-1.90985</v>
+      </c>
+      <c r="Q28">
+        <v>12.411899999999999</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>-1.6015299999999999</v>
+      </c>
+      <c r="T28">
+        <v>40.084200000000003</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>-5.1721599999999999</v>
+      </c>
+      <c r="W28" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29">
+        <v>0.54</v>
+      </c>
+      <c r="C29">
+        <v>2.9301400000000002</v>
+      </c>
+      <c r="D29">
+        <v>-3.1070600000000002</v>
+      </c>
+      <c r="E29">
+        <v>-1.5584899999999999</v>
+      </c>
+      <c r="F29">
+        <v>13.1953</v>
+      </c>
+      <c r="G29">
+        <v>-2.28867E-4</v>
+      </c>
+      <c r="H29">
+        <v>-5.9570200000000004E-3</v>
+      </c>
+      <c r="I29">
+        <v>40.017200000000003</v>
+      </c>
+      <c r="J29">
+        <v>-9.1468500000000004E-4</v>
+      </c>
+      <c r="K29">
+        <v>-2.6308499999999999E-2</v>
+      </c>
+      <c r="L29">
+        <v>150.72800000000001</v>
+      </c>
+      <c r="M29">
+        <v>-90</v>
+      </c>
+      <c r="N29">
+        <v>2.8919100000000002</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>-1.9439500000000001</v>
+      </c>
+      <c r="Q29">
+        <v>13.213800000000001</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>-1.7050099999999999</v>
+      </c>
+      <c r="T29">
+        <v>40.098999999999997</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>-5.1740599999999999</v>
+      </c>
+      <c r="W29" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B30">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C30">
+        <v>3.2100200000000001</v>
+      </c>
+      <c r="D30">
+        <v>-3.1070700000000002</v>
+      </c>
+      <c r="E30">
+        <v>-1.5586199999999999</v>
+      </c>
+      <c r="F30">
+        <v>13.9938</v>
+      </c>
+      <c r="G30">
+        <v>-2.4023E-4</v>
+      </c>
+      <c r="H30">
+        <v>-6.3154600000000002E-3</v>
+      </c>
+      <c r="I30">
+        <v>39.921399999999998</v>
+      </c>
+      <c r="J30">
+        <v>-5.68149E-4</v>
+      </c>
+      <c r="K30">
+        <v>-1.7922E-2</v>
+      </c>
+      <c r="L30">
+        <v>150.41</v>
+      </c>
+      <c r="M30">
+        <v>-90</v>
+      </c>
+      <c r="N30">
+        <v>3.17218</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>-1.98011</v>
+      </c>
+      <c r="Q30">
+        <v>14.013400000000001</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>-1.8081799999999999</v>
+      </c>
+      <c r="T30">
+        <v>39.9771</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>-5.1583300000000003</v>
+      </c>
+      <c r="W30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B31">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C31">
+        <v>3.5057800000000001</v>
+      </c>
+      <c r="D31">
+        <v>-3.1070700000000002</v>
+      </c>
+      <c r="E31">
+        <v>-1.5587500000000001</v>
+      </c>
+      <c r="F31">
+        <v>14.7882</v>
+      </c>
+      <c r="G31">
+        <v>-2.46615E-4</v>
+      </c>
+      <c r="H31">
+        <v>-6.5521800000000003E-3</v>
+      </c>
+      <c r="I31">
+        <v>39.720500000000001</v>
+      </c>
+      <c r="J31">
+        <v>-3.1923100000000001E-4</v>
+      </c>
+      <c r="K31">
+        <v>-1.1835699999999999E-2</v>
+      </c>
+      <c r="L31">
+        <v>149.684</v>
+      </c>
+      <c r="M31">
+        <v>-90</v>
+      </c>
+      <c r="N31">
+        <v>3.46835</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>-2.0183200000000001</v>
+      </c>
+      <c r="Q31">
+        <v>14.8085</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>-1.9107799999999999</v>
+      </c>
+      <c r="T31">
+        <v>39.757300000000001</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>-5.1299700000000001</v>
+      </c>
+      <c r="W31" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32">
+        <v>0.6</v>
+      </c>
+      <c r="C32">
+        <v>3.81732</v>
+      </c>
+      <c r="D32">
+        <v>-3.1070799999999998</v>
+      </c>
+      <c r="E32">
+        <v>-1.55888</v>
+      </c>
+      <c r="F32">
+        <v>15.5771</v>
+      </c>
+      <c r="G32">
+        <v>-2.4944300000000002E-4</v>
+      </c>
+      <c r="H32">
+        <v>-6.70063E-3</v>
+      </c>
+      <c r="I32">
+        <v>39.444800000000001</v>
+      </c>
+      <c r="J32">
+        <v>-1.4141800000000001E-4</v>
+      </c>
+      <c r="K32">
+        <v>-7.4225899999999997E-3</v>
+      </c>
+      <c r="L32">
+        <v>148.66800000000001</v>
+      </c>
+      <c r="M32">
+        <v>-90</v>
+      </c>
+      <c r="N32">
+        <v>3.7803</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>-2.0585800000000001</v>
+      </c>
+      <c r="Q32">
+        <v>15.597899999999999</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>-2.0126300000000001</v>
+      </c>
+      <c r="T32">
+        <v>39.4679</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>-5.0926299999999998</v>
+      </c>
+      <c r="W32" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33">
+        <v>0.62</v>
+      </c>
+      <c r="C33">
+        <v>4.1445100000000004</v>
+      </c>
+      <c r="D33">
+        <v>-3.1070799999999998</v>
+      </c>
+      <c r="E33">
+        <v>-1.5590200000000001</v>
+      </c>
+      <c r="F33">
+        <v>16.359400000000001</v>
+      </c>
+      <c r="G33">
+        <v>-2.4974699999999998E-4</v>
+      </c>
+      <c r="H33">
+        <v>-6.7851600000000001E-3</v>
+      </c>
+      <c r="I33">
+        <v>39.116199999999999</v>
+      </c>
+      <c r="J33">
+        <v>-1.5185600000000001E-5</v>
+      </c>
+      <c r="K33">
+        <v>-4.2265100000000002E-3</v>
+      </c>
+      <c r="L33">
+        <v>147.446</v>
+      </c>
+      <c r="M33">
+        <v>-90</v>
+      </c>
+      <c r="N33">
+        <v>4.1079100000000004</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>-2.1008499999999999</v>
+      </c>
+      <c r="Q33">
+        <v>16.380500000000001</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>-2.11361</v>
+      </c>
+      <c r="T33">
+        <v>39.129399999999997</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>-5.0489499999999996</v>
+      </c>
+      <c r="W33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34">
+        <v>0.64</v>
+      </c>
+      <c r="C34">
+        <v>4.4871999999999996</v>
+      </c>
+      <c r="D34">
+        <v>-3.1070899999999999</v>
+      </c>
+      <c r="E34">
+        <v>-1.55915</v>
+      </c>
+      <c r="F34">
+        <v>17.134399999999999</v>
+      </c>
+      <c r="G34">
+        <v>-2.4827200000000001E-4</v>
+      </c>
+      <c r="H34">
+        <v>-6.8234699999999999E-3</v>
+      </c>
+      <c r="I34">
+        <v>38.750799999999998</v>
+      </c>
+      <c r="J34">
+        <v>7.3748499999999994E-5</v>
+      </c>
+      <c r="K34">
+        <v>-1.9156399999999999E-3</v>
+      </c>
+      <c r="L34">
+        <v>146.08000000000001</v>
+      </c>
+      <c r="M34">
+        <v>-90</v>
+      </c>
+      <c r="N34">
+        <v>4.4510300000000003</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>-2.1451199999999999</v>
+      </c>
+      <c r="Q34">
+        <v>17.1556</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>-2.2136300000000002</v>
+      </c>
+      <c r="T34">
+        <v>38.756700000000002</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>-5.0008699999999999</v>
+      </c>
+      <c r="W34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35">
+        <v>0.66</v>
+      </c>
+      <c r="C35">
+        <v>4.8452299999999999</v>
+      </c>
+      <c r="D35">
+        <v>-3.1070899999999999</v>
+      </c>
+      <c r="E35">
+        <v>-1.5592900000000001</v>
+      </c>
+      <c r="F35">
+        <v>17.901599999999998</v>
+      </c>
+      <c r="G35">
+        <v>-2.4555600000000002E-4</v>
+      </c>
+      <c r="H35">
+        <v>-6.8284499999999998E-3</v>
+      </c>
+      <c r="I35">
+        <v>38.36</v>
+      </c>
+      <c r="J35">
+        <v>1.3577899999999999E-4</v>
+      </c>
+      <c r="K35">
+        <v>-2.4857600000000003E-4</v>
+      </c>
+      <c r="L35">
+        <v>144.61500000000001</v>
+      </c>
+      <c r="M35">
+        <v>-90</v>
+      </c>
+      <c r="N35">
+        <v>4.8094799999999998</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>-2.19137</v>
+      </c>
+      <c r="Q35">
+        <v>17.922799999999999</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>-2.3126199999999999</v>
+      </c>
+      <c r="T35">
+        <v>38.360799999999998</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>-4.9497799999999996</v>
+      </c>
+      <c r="W35" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36">
+        <v>0.68</v>
+      </c>
+      <c r="C36">
+        <v>5.2184400000000002</v>
+      </c>
+      <c r="D36">
+        <v>-3.1071</v>
+      </c>
+      <c r="E36">
+        <v>-1.5594300000000001</v>
+      </c>
+      <c r="F36">
+        <v>18.660699999999999</v>
+      </c>
+      <c r="G36">
+        <v>-2.4198700000000001E-4</v>
+      </c>
+      <c r="H36">
+        <v>-6.8094399999999999E-3</v>
+      </c>
+      <c r="I36">
+        <v>37.952399999999997</v>
+      </c>
+      <c r="J36">
+        <v>1.7844599999999999E-4</v>
+      </c>
+      <c r="K36">
+        <v>9.5029900000000004E-4</v>
+      </c>
+      <c r="L36">
+        <v>143.08500000000001</v>
+      </c>
+      <c r="M36">
+        <v>-90</v>
+      </c>
+      <c r="N36">
+        <v>5.1831199999999997</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>-2.2395900000000002</v>
+      </c>
+      <c r="Q36">
+        <v>18.681799999999999</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>-2.4105599999999998</v>
+      </c>
+      <c r="T36">
+        <v>37.949399999999997</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>-4.8967000000000001</v>
+      </c>
+      <c r="W36" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37">
+        <v>0.7</v>
+      </c>
+      <c r="C37">
+        <v>5.6066700000000003</v>
+      </c>
+      <c r="D37">
+        <v>-3.1071</v>
+      </c>
+      <c r="E37">
+        <v>-1.5595600000000001</v>
+      </c>
+      <c r="F37">
+        <v>19.411300000000001</v>
+      </c>
+      <c r="G37">
+        <v>-2.3784300000000001E-4</v>
+      </c>
+      <c r="H37">
+        <v>-6.7732599999999997E-3</v>
+      </c>
+      <c r="I37">
+        <v>37.533900000000003</v>
+      </c>
+      <c r="J37">
+        <v>2.07202E-4</v>
+      </c>
+      <c r="K37">
+        <v>1.8087400000000001E-3</v>
+      </c>
+      <c r="L37">
+        <v>141.512</v>
+      </c>
+      <c r="M37">
+        <v>-90</v>
+      </c>
+      <c r="N37">
+        <v>5.5717699999999999</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>-2.28973</v>
+      </c>
+      <c r="Q37">
+        <v>19.432400000000001</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>-2.5074000000000001</v>
+      </c>
+      <c r="T37">
+        <v>37.528300000000002</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>-4.8423600000000002</v>
+      </c>
+      <c r="W37" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>449</v>
+      </c>
+      <c r="B38">
+        <v>0.72</v>
+      </c>
+      <c r="C38">
+        <v>6.0097399999999999</v>
+      </c>
+      <c r="D38">
+        <v>-3.1071</v>
+      </c>
+      <c r="E38">
+        <v>-1.5597000000000001</v>
+      </c>
+      <c r="F38">
+        <v>20.153500000000001</v>
+      </c>
+      <c r="G38">
+        <v>-2.3332299999999999E-4</v>
+      </c>
+      <c r="H38">
+        <v>-6.72487E-3</v>
+      </c>
+      <c r="I38">
+        <v>37.109099999999998</v>
+      </c>
+      <c r="J38">
+        <v>2.2598799999999999E-4</v>
+      </c>
+      <c r="K38">
+        <v>2.4196899999999999E-3</v>
+      </c>
+      <c r="L38">
+        <v>139.91300000000001</v>
+      </c>
+      <c r="M38">
+        <v>-90</v>
+      </c>
+      <c r="N38">
+        <v>5.97525</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>-2.3418000000000001</v>
+      </c>
+      <c r="Q38">
+        <v>20.174399999999999</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>-2.6031499999999999</v>
+      </c>
+      <c r="T38">
+        <v>37.101599999999998</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>-4.7873000000000001</v>
+      </c>
+      <c r="W38" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39">
+        <v>0.74</v>
+      </c>
+      <c r="C39">
+        <v>6.4274800000000001</v>
+      </c>
+      <c r="D39">
+        <v>-3.10711</v>
+      </c>
+      <c r="E39">
+        <v>-1.55983</v>
+      </c>
+      <c r="F39">
+        <v>20.8871</v>
+      </c>
+      <c r="G39">
+        <v>-2.2856999999999999E-4</v>
+      </c>
+      <c r="H39">
+        <v>-6.6678600000000003E-3</v>
+      </c>
+      <c r="I39">
+        <v>36.681100000000001</v>
+      </c>
+      <c r="J39">
+        <v>2.3764200000000001E-4</v>
+      </c>
+      <c r="K39">
+        <v>2.85075E-3</v>
+      </c>
+      <c r="L39">
+        <v>138.30199999999999</v>
+      </c>
+      <c r="M39">
+        <v>-90</v>
+      </c>
+      <c r="N39">
+        <v>6.3934100000000003</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>-2.39575</v>
+      </c>
+      <c r="Q39">
+        <v>20.907900000000001</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>-2.6977899999999999</v>
+      </c>
+      <c r="T39">
+        <v>36.672199999999997</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>-4.7319000000000004</v>
+      </c>
+      <c r="W39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40">
+        <v>0.76</v>
+      </c>
+      <c r="C40">
+        <v>6.8597299999999999</v>
+      </c>
+      <c r="D40">
+        <v>-3.10711</v>
+      </c>
+      <c r="E40">
+        <v>-1.55996</v>
+      </c>
+      <c r="F40">
+        <v>21.612200000000001</v>
+      </c>
+      <c r="G40">
+        <v>-2.2368600000000001E-4</v>
+      </c>
+      <c r="H40">
+        <v>-6.6048299999999999E-3</v>
+      </c>
+      <c r="I40">
+        <v>36.252200000000002</v>
+      </c>
+      <c r="J40">
+        <v>2.4420900000000001E-4</v>
+      </c>
+      <c r="K40">
+        <v>3.1511099999999999E-3</v>
+      </c>
+      <c r="L40">
+        <v>136.68700000000001</v>
+      </c>
+      <c r="M40">
+        <v>-90</v>
+      </c>
+      <c r="N40">
+        <v>6.8260699999999996</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>-2.4515799999999999</v>
+      </c>
+      <c r="Q40">
+        <v>21.6327</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>-2.7913199999999998</v>
+      </c>
+      <c r="T40">
+        <v>36.242400000000004</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>-4.6764400000000004</v>
+      </c>
+      <c r="W40" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41">
+        <v>0.78</v>
+      </c>
+      <c r="C41">
+        <v>7.3063000000000002</v>
+      </c>
+      <c r="D41">
+        <v>-3.1071200000000001</v>
+      </c>
+      <c r="E41">
+        <v>-1.56009</v>
+      </c>
+      <c r="F41">
+        <v>22.328700000000001</v>
+      </c>
+      <c r="G41">
+        <v>-2.18743E-4</v>
+      </c>
+      <c r="H41">
+        <v>-6.5376999999999996E-3</v>
+      </c>
+      <c r="I41">
+        <v>35.824100000000001</v>
+      </c>
+      <c r="J41">
+        <v>2.4716099999999997E-4</v>
+      </c>
+      <c r="K41">
+        <v>3.3565499999999998E-3</v>
+      </c>
+      <c r="L41">
+        <v>135.07400000000001</v>
+      </c>
+      <c r="M41">
+        <v>-90</v>
+      </c>
+      <c r="N41">
+        <v>7.2730499999999996</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-2.5092500000000002</v>
+      </c>
+      <c r="Q41">
+        <v>22.349</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>-2.88374</v>
+      </c>
+      <c r="T41">
+        <v>35.813699999999997</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>-4.6211200000000003</v>
+      </c>
+      <c r="W41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42">
+        <v>0.8</v>
+      </c>
+      <c r="C42">
+        <v>7.7670300000000001</v>
+      </c>
+      <c r="D42">
+        <v>-3.1071200000000001</v>
+      </c>
+      <c r="E42">
+        <v>-1.5602199999999999</v>
+      </c>
+      <c r="F42">
+        <v>23.0366</v>
+      </c>
+      <c r="G42">
+        <v>-2.13792E-4</v>
+      </c>
+      <c r="H42">
+        <v>-6.4678399999999999E-3</v>
+      </c>
+      <c r="I42">
+        <v>35.398000000000003</v>
+      </c>
+      <c r="J42">
+        <v>2.4755600000000001E-4</v>
+      </c>
+      <c r="K42">
+        <v>3.4930899999999999E-3</v>
+      </c>
+      <c r="L42">
+        <v>133.46799999999999</v>
+      </c>
+      <c r="M42">
+        <v>-90</v>
+      </c>
+      <c r="N42">
+        <v>7.7341800000000003</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>-2.5687500000000001</v>
+      </c>
+      <c r="Q42">
+        <v>23.056699999999999</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>-2.97506</v>
+      </c>
+      <c r="T42">
+        <v>35.387099999999997</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>-4.5660800000000004</v>
+      </c>
+      <c r="W42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>B3/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="0">B4/$C$2</f>
+        <v>0.125</v>
+      </c>
+      <c r="D4">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="D6">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="D8">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10">
+        <v>3.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="D10">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Mass_Props_Simulation/DynamicSims.xlsx
+++ b/Mass_Props_Simulation/DynamicSims.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Motor-Pend" sheetId="19" r:id="rId1"/>
@@ -15,14 +15,16 @@
     <sheet name="WhobbleWheel" sheetId="17" r:id="rId6"/>
     <sheet name="WW-mass_accel" sheetId="20" r:id="rId7"/>
     <sheet name="Cart1" sheetId="21" r:id="rId8"/>
-    <sheet name="VeloRamp" sheetId="23" r:id="rId9"/>
+    <sheet name="PosVectors" sheetId="25" r:id="rId9"/>
+    <sheet name="VeloRamp" sheetId="23" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="26" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="523">
   <si>
     <t>X</t>
   </si>
@@ -1436,6 +1438,162 @@
   <si>
     <t>Velocity profile for an approximate Triangle Wave acceleration profile</t>
   </si>
+  <si>
+    <t>Max A</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Max V</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>v=4/2*t^2= 2*t^2</t>
+  </si>
+  <si>
+    <t>Seg 1 (time = 0 to .25)</t>
+  </si>
+  <si>
+    <t>Seg 2 (time = .25 to .75)</t>
+  </si>
+  <si>
+    <t>Seg 3 (time = .75 to 1)</t>
+  </si>
+  <si>
+    <t>v=4/2*t^2 + 1*t = 2*t^2 + t</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>v=-4/2*t^2 + .5*t = -2*t^2 + .5*t + C</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>OpenSCAD Format</t>
+  </si>
+  <si>
+    <t>JAVA Velo Ramp</t>
+  </si>
+  <si>
+    <t>ECHO:</t>
+  </si>
+  <si>
+    <t>Position profile to travel 1 cm in 1 sec, using an approximate Triangle Wave acceleration profile</t>
+  </si>
+  <si>
+    <t>Pitch profile to travel 1 cm in 1 sec, using an approximate Triangle Wave acceleration profile</t>
+  </si>
+  <si>
+    <t>Pitch (deg)</t>
+  </si>
+  <si>
+    <t>Position (cm)</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>JAVA code</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>posTarget = distTarget * posVector.getY(distTimer.seconds()/rT);</t>
+  </si>
+  <si>
+    <t>dist Target (cm)</t>
+  </si>
+  <si>
+    <t>pos Target</t>
+  </si>
+  <si>
+    <t>pitch Target</t>
+  </si>
+  <si>
+    <t>Travel Time (rT)</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Timer/rT</t>
+  </si>
+  <si>
+    <t>Checks:</t>
+  </si>
+  <si>
+    <t>MAX_V</t>
+  </si>
+  <si>
+    <t>2*DIST/TIME;</t>
+  </si>
+  <si>
+    <t>MAX_A</t>
+  </si>
+  <si>
+    <t>4*MAX_V/TIME;</t>
+  </si>
+  <si>
+    <t>MAX_A_UNIT = 8</t>
+  </si>
+  <si>
+    <t>max velocity</t>
+  </si>
+  <si>
+    <t>max acceleration</t>
+  </si>
+  <si>
+    <t>pitch scaler = max acc/8</t>
+  </si>
+  <si>
+    <t>max_v = 2.0* distTarget / rT;</t>
+  </si>
+  <si>
+    <t>max_a = 4.0 * max_v / rT;</t>
+  </si>
+  <si>
+    <t>pitchScaler = max_a / 8.0;</t>
+  </si>
+  <si>
+    <t>pitchTarget = pitchScaler * pitchVector.getY(distTimer.seconds()/rT);</t>
+  </si>
+  <si>
+    <t>No Cargo</t>
+  </si>
+  <si>
+    <t>For Desired Arm Angle</t>
+  </si>
+  <si>
+    <t>Set Arm Angle</t>
+  </si>
+  <si>
+    <t>Set Pitch</t>
+  </si>
+  <si>
+    <t>LIGHT BOX CARGO</t>
+  </si>
+  <si>
+    <t>Set Arm Angle NC</t>
+  </si>
+  <si>
+    <t>Set Pitch NC</t>
+  </si>
+  <si>
+    <t>Set Pitch LT BLK</t>
+  </si>
+  <si>
+    <t>Set Arm Angle LT BLK</t>
+  </si>
 </sst>
 </file>
 
@@ -1573,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1594,6 +1752,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2870,8 +3032,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230440960"/>
-        <c:axId val="230442496"/>
+        <c:axId val="229956224"/>
+        <c:axId val="229962112"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4127,11 +4289,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230445824"/>
-        <c:axId val="230444032"/>
+        <c:axId val="229965184"/>
+        <c:axId val="229963648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230440960"/>
+        <c:axId val="229956224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,12 +4304,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230442496"/>
+        <c:crossAx val="229962112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230442496"/>
+        <c:axId val="229962112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4158,12 +4320,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230440960"/>
+        <c:crossAx val="229956224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230444032"/>
+        <c:axId val="229963648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4173,12 +4335,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230445824"/>
+        <c:crossAx val="229965184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230445824"/>
+        <c:axId val="229965184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230444032"/>
+        <c:crossAx val="229963648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4357,11 +4519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230572800"/>
-        <c:axId val="230574720"/>
+        <c:axId val="229649792"/>
+        <c:axId val="229701120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230572800"/>
+        <c:axId val="229649792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -4401,13 +4563,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230574720"/>
+        <c:crossAx val="229701120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230574720"/>
+        <c:axId val="229701120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230572800"/>
+        <c:crossAx val="229649792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5304,8 +5466,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231020032"/>
-        <c:axId val="231021568"/>
+        <c:axId val="229896960"/>
+        <c:axId val="229898496"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -6964,11 +7126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231028992"/>
-        <c:axId val="231027456"/>
+        <c:axId val="230245888"/>
+        <c:axId val="230244352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231020032"/>
+        <c:axId val="229896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6979,12 +7141,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231021568"/>
+        <c:crossAx val="229898496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231021568"/>
+        <c:axId val="229898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6995,12 +7157,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231020032"/>
+        <c:crossAx val="229896960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231027456"/>
+        <c:axId val="230244352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7010,12 +7172,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231028992"/>
+        <c:crossAx val="230245888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231028992"/>
+        <c:axId val="230245888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7025,7 +7187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231027456"/>
+        <c:crossAx val="230244352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8319,11 +8481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="231062144"/>
-        <c:axId val="230826368"/>
+        <c:axId val="228784000"/>
+        <c:axId val="228785536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231062144"/>
+        <c:axId val="228784000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8334,12 +8496,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230826368"/>
+        <c:crossAx val="228785536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230826368"/>
+        <c:axId val="228785536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8350,7 +8512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231062144"/>
+        <c:crossAx val="228784000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8965,8 +9127,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230893440"/>
-        <c:axId val="230894976"/>
+        <c:axId val="230114432"/>
+        <c:axId val="230115968"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9262,11 +9424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230898304"/>
-        <c:axId val="230896768"/>
+        <c:axId val="230123392"/>
+        <c:axId val="230121856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230893440"/>
+        <c:axId val="230114432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9277,12 +9439,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230894976"/>
+        <c:crossAx val="230115968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230894976"/>
+        <c:axId val="230115968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9293,12 +9455,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230893440"/>
+        <c:crossAx val="230114432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230896768"/>
+        <c:axId val="230121856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9308,12 +9470,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230898304"/>
+        <c:crossAx val="230123392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230898304"/>
+        <c:axId val="230123392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9323,7 +9485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230896768"/>
+        <c:crossAx val="230121856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9387,17 +9549,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>VeloRamp!$C$3:$C$5</c:f>
+              <c:f>VeloRamp!$B$32:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -9405,17 +9576,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VeloRamp!$D$3:$D$5</c:f>
+              <c:f>VeloRamp!$C$32:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.122</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -9431,11 +9611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176164864"/>
-        <c:axId val="176163072"/>
+        <c:axId val="230390400"/>
+        <c:axId val="230404480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="176164864"/>
+        <c:axId val="230390400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9446,12 +9626,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176163072"/>
+        <c:crossAx val="230404480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176163072"/>
+        <c:axId val="230404480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9462,7 +9642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176164864"/>
+        <c:crossAx val="230390400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9518,8 +9698,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.25607597232164159"/>
-                  <c:y val="5.1141632612379147E-2"/>
+                  <c:x val="-0.3583807205917442"/>
+                  <c:y val="3.3003887172331305E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9527,23 +9707,41 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>VeloRamp!$C$5:$C$9</c:f>
+              <c:f>VeloRamp!$B$37:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.375</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
@@ -9551,23 +9749,41 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VeloRamp!$D$5:$D$9</c:f>
+              <c:f>VeloRamp!$C$37:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -9583,11 +9799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170170624"/>
-        <c:axId val="170205184"/>
+        <c:axId val="230769408"/>
+        <c:axId val="230770944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170170624"/>
+        <c:axId val="230769408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9598,12 +9814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170205184"/>
+        <c:crossAx val="230770944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170205184"/>
+        <c:axId val="230770944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9614,7 +9830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170170624"/>
+        <c:crossAx val="230769408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9679,8 +9895,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.18406394655213554"/>
-                  <c:y val="-0.30513306089903319"/>
+                  <c:x val="-0.27120807815689707"/>
+                  <c:y val="-0.33415462307717864"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -9688,17 +9904,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>VeloRamp!$C$9:$C$12</c:f>
+              <c:f>VeloRamp!$B$47:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -9706,17 +9931,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>VeloRamp!$D$9:$D$12</c:f>
+              <c:f>VeloRamp!$C$47:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.122</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9732,11 +9966,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170062976"/>
-        <c:axId val="175288704"/>
+        <c:axId val="230783616"/>
+        <c:axId val="230785408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170062976"/>
+        <c:axId val="230783616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9747,12 +9981,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175288704"/>
+        <c:crossAx val="230785408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175288704"/>
+        <c:axId val="230785408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9763,7 +9997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170062976"/>
+        <c:crossAx val="230783616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9772,6 +10006,518 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Pitch NC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6287200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.1386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.404399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.288599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.638100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.2852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.057299999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.796799999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.390500000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.796799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Arm Angle NC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3712799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8613800000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.595599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.711400000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.361899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.7148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.942700000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.203200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.609499999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.203199999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Pitch LT BLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1992700000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.2902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.152200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.6388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.5627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.682499999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.700800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.294199999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.194400000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45.294199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set Arm Angle LT BLK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8007300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7097800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8478100000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.4373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.317499999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.299199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.705800000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.805599999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.705800000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="24518656"/>
+        <c:axId val="24512768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="24518656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Desired Arm Angle (deg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="24512768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24512768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="24518656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -10008,16 +10754,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10039,15 +10785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10070,15 +10816,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10095,6 +10841,79 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152847</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4572000"/>
+          <a:ext cx="3200847" cy="5325218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18704,6 +19523,1503 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>471</v>
+      </c>
+      <c r="M1">
+        <f>4*M3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>0.25*H1/H2</f>
+        <v>0.25</v>
+      </c>
+      <c r="J3" t="str">
+        <f>"1/4*MaxA/T"</f>
+        <v>1/4*MaxA/T</v>
+      </c>
+      <c r="L3" t="s">
+        <v>473</v>
+      </c>
+      <c r="M3">
+        <f>2*M4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H4">
+        <v>0.125</v>
+      </c>
+      <c r="I4">
+        <f>0.5*I3/H2</f>
+        <v>0.125</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"1/2*MaxV/T"</f>
+        <v>1/2*MaxV/T</v>
+      </c>
+      <c r="L4" t="s">
+        <v>474</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>476</v>
+      </c>
+      <c r="L6" t="s">
+        <v>472</v>
+      </c>
+      <c r="M6" t="s">
+        <v>480</v>
+      </c>
+      <c r="N6" t="s">
+        <v>481</v>
+      </c>
+      <c r="O6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f>"a=(1/.25)*t = 4*t"</f>
+        <v>a=(1/.25)*t = 4*t</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M12" si="0">$M$1*L7</f>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>$M$1/2*L7^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>475</v>
+      </c>
+      <c r="L8">
+        <v>0.05</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N12" si="1">$M$1/2*L8^2</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>"d=2/3*t^3"</f>
+        <v>d=2/3*t^3</v>
+      </c>
+      <c r="L9">
+        <v>0.1</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0.2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>477</v>
+      </c>
+      <c r="L12">
+        <v>0.25</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f>"a=(-1/.25)*t + .5 = -4*t + .5"</f>
+        <v>a=(-1/.25)*t + .5 = -4*t + .5</v>
+      </c>
+      <c r="L13">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M13">
+        <f>-$M$1*L13+0.5*L13</f>
+        <v>-2.2500000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>482</v>
+      </c>
+      <c r="L14">
+        <v>0.35000000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>"d=-2/3*t^3 + .5/2*t^2  = -.667*t^3 + .25*t^2"</f>
+        <v>d=-2/3*t^3 + .5/2*t^2  = -.667*t^3 + .25*t^2</v>
+      </c>
+      <c r="L15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>478</v>
+      </c>
+      <c r="L18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f>"a=(1/.25)*t + 1 = 4*t + 1"</f>
+        <v>a=(1/.25)*t + 1 = 4*t + 1</v>
+      </c>
+      <c r="L19">
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>"d=2/3*t^3 +1/2*t^2  = .667*t^3 + .5*t^2"</f>
+        <v>d=2/3*t^3 +1/2*t^2  = .667*t^3 + .5*t^2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31" t="s">
+        <v>481</v>
+      </c>
+      <c r="D31" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>449</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="str">
+        <f>CONCATENATE("[",TEXT(B32,"#.00"),"*TIME,",TEXT(C32,"#.00"),"*MAX_V],")</f>
+        <v>[.00*TIME,.00*MAX_V],</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+      <c r="C33">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33:D52" si="2">CONCATENATE("[",TEXT(B33,"#.00"),"*TIME,",TEXT(C33,"#.00"),"*MAX_V],")</f>
+        <v>[.05*TIME,.02*MAX_V],</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>0.08</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>[.10*TIME,.08*MAX_V],</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35">
+        <v>0.15</v>
+      </c>
+      <c r="C35">
+        <v>0.18</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>[.15*TIME,.18*MAX_V],</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36">
+        <v>0.2</v>
+      </c>
+      <c r="C36">
+        <v>0.32</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>[.20*TIME,.32*MAX_V],</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>449</v>
+      </c>
+      <c r="B37">
+        <v>0.25</v>
+      </c>
+      <c r="C37">
+        <v>0.5</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>[.25*TIME,.50*MAX_V],</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>449</v>
+      </c>
+      <c r="B38">
+        <v>0.3</v>
+      </c>
+      <c r="C38">
+        <v>0.68</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>[.30*TIME,.68*MAX_V],</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39">
+        <v>0.35</v>
+      </c>
+      <c r="C39">
+        <v>0.82</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>[.35*TIME,.82*MAX_V],</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B40">
+        <v>0.4</v>
+      </c>
+      <c r="C40">
+        <v>0.92</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>[.40*TIME,.92*MAX_V],</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>449</v>
+      </c>
+      <c r="B41">
+        <v>0.45</v>
+      </c>
+      <c r="C41">
+        <v>0.98</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>[.45*TIME,.98*MAX_V],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42">
+        <v>0.5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>[.50*TIME,1.00*MAX_V],</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>449</v>
+      </c>
+      <c r="B43">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C43">
+        <v>0.98</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>[.55*TIME,.98*MAX_V],</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44">
+        <v>0.6</v>
+      </c>
+      <c r="C44">
+        <v>0.92</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>[.60*TIME,.92*MAX_V],</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>449</v>
+      </c>
+      <c r="B45">
+        <v>0.65</v>
+      </c>
+      <c r="C45">
+        <v>0.82</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>[.65*TIME,.82*MAX_V],</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>449</v>
+      </c>
+      <c r="B46">
+        <v>0.7</v>
+      </c>
+      <c r="C46">
+        <v>0.68</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>[.70*TIME,.68*MAX_V],</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>449</v>
+      </c>
+      <c r="B47">
+        <v>0.75</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>[.75*TIME,.50*MAX_V],</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>449</v>
+      </c>
+      <c r="B48">
+        <v>0.8</v>
+      </c>
+      <c r="C48">
+        <v>0.32</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>[.80*TIME,.32*MAX_V],</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49">
+        <v>0.85</v>
+      </c>
+      <c r="C49">
+        <v>0.18</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>[.85*TIME,.18*MAX_V],</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>449</v>
+      </c>
+      <c r="B50">
+        <v>0.9</v>
+      </c>
+      <c r="C50">
+        <v>0.08</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>[.90*TIME,.08*MAX_V],</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>449</v>
+      </c>
+      <c r="B51">
+        <v>0.95</v>
+      </c>
+      <c r="C51">
+        <v>0.02</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>[.95*TIME,.02*MAX_V],</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>[1.00*TIME,.00*MAX_V],</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>483</v>
+      </c>
+      <c r="C55" t="s">
+        <v>481</v>
+      </c>
+      <c r="D55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>449</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="str">
+        <f>CONCATENATE("veloRamp.addElement(",TEXT(B56,"#.00"),",",TEXT(C56,"#.00"),");")</f>
+        <v>veloRamp.addElement(.00,.00);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>449</v>
+      </c>
+      <c r="B57">
+        <v>0.05</v>
+      </c>
+      <c r="C57">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ref="D57:D76" si="3">CONCATENATE("veloRamp.addElement(",TEXT(B57,"#.00"),",",TEXT(C57,"#.00"),");")</f>
+        <v>veloRamp.addElement(.05,.02);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>449</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <v>0.08</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.10,.08);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>449</v>
+      </c>
+      <c r="B59">
+        <v>0.15</v>
+      </c>
+      <c r="C59">
+        <v>0.18</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.15,.18);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60">
+        <v>0.2</v>
+      </c>
+      <c r="C60">
+        <v>0.32</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.20,.32);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>449</v>
+      </c>
+      <c r="B61">
+        <v>0.25</v>
+      </c>
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.25,.50);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>449</v>
+      </c>
+      <c r="B62">
+        <v>0.3</v>
+      </c>
+      <c r="C62">
+        <v>0.68</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.30,.68);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>449</v>
+      </c>
+      <c r="B63">
+        <v>0.35</v>
+      </c>
+      <c r="C63">
+        <v>0.82</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.35,.82);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64">
+        <v>0.4</v>
+      </c>
+      <c r="C64">
+        <v>0.92</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.40,.92);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>449</v>
+      </c>
+      <c r="B65">
+        <v>0.45</v>
+      </c>
+      <c r="C65">
+        <v>0.98</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.45,.98);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>449</v>
+      </c>
+      <c r="B66">
+        <v>0.5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.50,1.00);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C67">
+        <v>0.98</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.55,.98);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68">
+        <v>0.6</v>
+      </c>
+      <c r="C68">
+        <v>0.92</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.60,.92);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>449</v>
+      </c>
+      <c r="B69">
+        <v>0.65</v>
+      </c>
+      <c r="C69">
+        <v>0.82</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.65,.82);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>449</v>
+      </c>
+      <c r="B70">
+        <v>0.7</v>
+      </c>
+      <c r="C70">
+        <v>0.68</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.70,.68);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71">
+        <v>0.75</v>
+      </c>
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.75,.50);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>449</v>
+      </c>
+      <c r="B72">
+        <v>0.8</v>
+      </c>
+      <c r="C72">
+        <v>0.32</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.80,.32);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73">
+        <v>0.85</v>
+      </c>
+      <c r="C73">
+        <v>0.18</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.85,.18);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>449</v>
+      </c>
+      <c r="B74">
+        <v>0.9</v>
+      </c>
+      <c r="C74">
+        <v>0.08</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.90,.08);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>449</v>
+      </c>
+      <c r="B75">
+        <v>0.95</v>
+      </c>
+      <c r="C75">
+        <v>0.02</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(.95,.02);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>449</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="3"/>
+        <v>veloRamp.addElement(1.00,.00);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>517</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D3">
+        <v>4.3712799999999996</v>
+      </c>
+      <c r="E3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F3">
+        <v>5.6287200000000004</v>
+      </c>
+      <c r="G3">
+        <f>D3+F3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4">
+        <v>8.8613800000000005</v>
+      </c>
+      <c r="E4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4">
+        <v>11.1386</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G12" si="0">D4+F4</f>
+        <v>19.999980000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5">
+        <v>13.595599999999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F5">
+        <v>16.404399999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>515</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6">
+        <v>18.711400000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6">
+        <v>21.288599999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>516</v>
+      </c>
+      <c r="D7">
+        <v>24.361899999999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F7">
+        <v>25.638100000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8">
+        <v>30.7148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F8">
+        <v>29.2852</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D9">
+        <v>37.942700000000002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>517</v>
+      </c>
+      <c r="F9">
+        <v>32.057299999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>515</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10">
+        <v>46.203200000000002</v>
+      </c>
+      <c r="E10" t="s">
+        <v>517</v>
+      </c>
+      <c r="F10">
+        <v>33.796799999999998</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11">
+        <v>55.609499999999997</v>
+      </c>
+      <c r="E11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F11">
+        <v>34.390500000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12">
+        <v>66.203199999999995</v>
+      </c>
+      <c r="E12" t="s">
+        <v>517</v>
+      </c>
+      <c r="F12">
+        <v>33.796799999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" t="s">
+        <v>522</v>
+      </c>
+      <c r="F15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G26" si="1">D16+F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>515</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>516</v>
+      </c>
+      <c r="D17">
+        <v>2.8007300000000002</v>
+      </c>
+      <c r="E17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F17">
+        <v>7.1992700000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18">
+        <v>5.7097800000000003</v>
+      </c>
+      <c r="E18" t="s">
+        <v>517</v>
+      </c>
+      <c r="F18">
+        <v>14.2902</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>19.999980000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>515</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19">
+        <v>8.8478100000000008</v>
+      </c>
+      <c r="E19" t="s">
+        <v>517</v>
+      </c>
+      <c r="F19">
+        <v>21.152200000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>30.000010000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20">
+        <v>12.3612</v>
+      </c>
+      <c r="E20" t="s">
+        <v>517</v>
+      </c>
+      <c r="F20">
+        <v>27.6388</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>515</v>
+      </c>
+      <c r="B21">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21">
+        <v>16.4373</v>
+      </c>
+      <c r="E21" t="s">
+        <v>517</v>
+      </c>
+      <c r="F21">
+        <v>33.5627</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>515</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D22">
+        <v>21.317499999999999</v>
+      </c>
+      <c r="E22" t="s">
+        <v>517</v>
+      </c>
+      <c r="F22">
+        <v>38.682499999999997</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B23">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23">
+        <v>27.299199999999999</v>
+      </c>
+      <c r="E23" t="s">
+        <v>517</v>
+      </c>
+      <c r="F23">
+        <v>42.700800000000001</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>515</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>516</v>
+      </c>
+      <c r="D24">
+        <v>34.705800000000004</v>
+      </c>
+      <c r="E24" t="s">
+        <v>517</v>
+      </c>
+      <c r="F24">
+        <v>45.294199999999996</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>515</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25">
+        <v>43.805599999999998</v>
+      </c>
+      <c r="E25" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25">
+        <v>46.194400000000002</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>516</v>
+      </c>
+      <c r="D26">
+        <v>54.705800000000004</v>
+      </c>
+      <c r="E26" t="s">
+        <v>517</v>
+      </c>
+      <c r="F26">
+        <v>45.294199999999996</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O23"/>
@@ -18763,20 +21079,20 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -29973,38 +32289,38 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="K9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -53884,161 +56200,856 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2">
+        <v>487</v>
+      </c>
+      <c r="K1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("posVector.addElement(",TEXT(B3,"#.00"),",",TEXT(C3,"#.00"),");")</f>
+        <v>posVector.addElement(.00,.00);</v>
+      </c>
+      <c r="K3" t="s">
+        <v>486</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE("pitchVector.addElement(",TEXT(L3,"#.00"),",",TEXT(M3,"#.00"),");")</f>
+        <v>pitchVector.addElement(.00,.00);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D23" si="0">CONCATENATE("posVector.addElement(",TEXT(B4,"#.00"),",",TEXT(C4,"#.00"),");")</f>
+        <v>posVector.addElement(.05,.01);</v>
+      </c>
+      <c r="K4" t="s">
+        <v>486</v>
+      </c>
+      <c r="L4">
+        <v>0.05</v>
+      </c>
+      <c r="M4">
+        <v>9.3480599999999997E-2</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N23" si="1">CONCATENATE("pitchVector.addElement(",TEXT(L4,"#.00"),",",TEXT(M4,"#.00"),");")</f>
+        <v>pitchVector.addElement(.05,.09);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.10,.02);</v>
+      </c>
+      <c r="K5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L5">
+        <v>0.1</v>
+      </c>
+      <c r="M5">
+        <v>0.18696099999999999</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.10,.19);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.15,.04);</v>
+      </c>
+      <c r="K6" t="s">
+        <v>486</v>
+      </c>
+      <c r="L6">
+        <v>0.15</v>
+      </c>
+      <c r="M6">
+        <v>0.28044000000000002</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.15,.28);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.20,.08);</v>
+      </c>
+      <c r="K7" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.373917</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.20,.37);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>486</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.25,.14);</v>
+      </c>
+      <c r="K8" t="s">
+        <v>486</v>
+      </c>
+      <c r="L8">
+        <v>0.25</v>
+      </c>
+      <c r="M8">
+        <v>0.467393</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.25,.47);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>0.218</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.30,.22);</v>
+      </c>
+      <c r="K9" t="s">
+        <v>486</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>0.373917</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.30,.37);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>486</v>
+      </c>
+      <c r="B10">
+        <v>0.35</v>
+      </c>
+      <c r="C10">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.35,.31);</v>
+      </c>
+      <c r="K10" t="s">
+        <v>486</v>
+      </c>
+      <c r="L10">
+        <v>0.35</v>
+      </c>
+      <c r="M10">
+        <v>0.28044000000000002</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.35,.28);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11">
+        <v>0.4</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.40,.40);</v>
+      </c>
+      <c r="K11" t="s">
+        <v>486</v>
+      </c>
+      <c r="L11">
+        <v>0.4</v>
+      </c>
+      <c r="M11">
+        <v>0.18696099999999999</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.40,.19);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12">
+        <v>0.45</v>
+      </c>
+      <c r="C12">
+        <v>0.499</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.45,.50);</v>
+      </c>
+      <c r="K12" t="s">
+        <v>486</v>
+      </c>
+      <c r="L12">
+        <v>0.45</v>
+      </c>
+      <c r="M12">
+        <v>9.3480599999999997E-2</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.45,.09);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.50,.60);</v>
+      </c>
+      <c r="K13" t="s">
+        <v>486</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.50,.00);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>486</v>
+      </c>
+      <c r="B14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.55,.69);</v>
+      </c>
+      <c r="K14" t="s">
+        <v>486</v>
+      </c>
+      <c r="L14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M14">
+        <v>-9.3480599999999997E-2</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.55,-.09);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <v>0.78</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.60,.78);</v>
+      </c>
+      <c r="K15" t="s">
+        <v>486</v>
+      </c>
+      <c r="L15">
+        <v>0.6</v>
+      </c>
+      <c r="M15">
+        <v>-0.18696099999999999</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.60,-.19);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16">
+        <v>0.65</v>
+      </c>
+      <c r="C16">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.65,.86);</v>
+      </c>
+      <c r="K16" t="s">
+        <v>486</v>
+      </c>
+      <c r="L16">
+        <v>0.65</v>
+      </c>
+      <c r="M16">
+        <v>-0.28044000000000002</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.65,-.28);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17">
+        <v>0.7</v>
+      </c>
+      <c r="C17">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.70,.91);</v>
+      </c>
+      <c r="K17" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17">
+        <v>0.7</v>
+      </c>
+      <c r="M17">
+        <v>-0.373917</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.70,-.37);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+      <c r="C18">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.75,.96);</v>
+      </c>
+      <c r="K18" t="s">
+        <v>486</v>
+      </c>
+      <c r="L18">
+        <v>0.75</v>
+      </c>
+      <c r="M18">
+        <v>-0.467393</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.75,-.47);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>486</v>
+      </c>
+      <c r="B19">
+        <v>0.8</v>
+      </c>
+      <c r="C19">
+        <v>0.98</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.80,.98);</v>
+      </c>
+      <c r="K19" t="s">
+        <v>486</v>
+      </c>
+      <c r="L19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
+        <v>-0.373917</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.80,-.37);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B20">
+        <v>0.85</v>
+      </c>
+      <c r="C20">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.85,.99);</v>
+      </c>
+      <c r="K20" t="s">
+        <v>486</v>
+      </c>
+      <c r="L20">
+        <v>0.85</v>
+      </c>
+      <c r="M20">
+        <v>-0.28044000000000002</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.85,-.28);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21">
+        <v>0.9</v>
+      </c>
+      <c r="C21">
+        <v>0.998</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.90,1.00);</v>
+      </c>
+      <c r="K21" t="s">
+        <v>486</v>
+      </c>
+      <c r="L21">
+        <v>0.9</v>
+      </c>
+      <c r="M21">
+        <v>-0.18696099999999999</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.90,-.19);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22">
+        <v>0.95</v>
+      </c>
+      <c r="C22">
+        <v>0.999</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(.95,1.00);</v>
+      </c>
+      <c r="K22" t="s">
+        <v>486</v>
+      </c>
+      <c r="L22">
+        <v>0.95</v>
+      </c>
+      <c r="M22">
+        <v>-9.3480599999999997E-2</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(.95,-.09);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>486</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.999</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>posVector.addElement(1.00,1.00);</v>
+      </c>
+      <c r="K23" t="s">
+        <v>486</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>pitchVector.addElement(1.00,.00);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>494</v>
+      </c>
+      <c r="K26" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>501</v>
+      </c>
+      <c r="K28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.25</v>
+      </c>
+      <c r="D30">
+        <f>C30/B30</f>
+        <v>0.25</v>
+      </c>
+      <c r="E30">
+        <f>2*A30/B30</f>
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f>4*E30/B30</f>
+        <v>80</v>
+      </c>
+      <c r="G30">
+        <f>F30/8</f>
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>1.43</v>
+      </c>
+      <c r="J30">
+        <v>4.67</v>
+      </c>
+      <c r="M30" t="s">
+        <v>502</v>
+      </c>
+      <c r="N30" t="s">
+        <v>493</v>
+      </c>
+      <c r="O30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0.5</v>
+      </c>
+      <c r="D31">
+        <f>C31/B31</f>
+        <v>0.25</v>
+      </c>
+      <c r="E31">
+        <f>2*A31/B31</f>
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <f>4*E31/B31</f>
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <f>F31/8</f>
+        <v>2.5</v>
+      </c>
+      <c r="I31">
+        <f>A31*C8</f>
+        <v>1.43</v>
+      </c>
+      <c r="J31" s="21">
+        <f>G31*M8</f>
+        <v>1.1684825000000001</v>
+      </c>
+      <c r="M31" t="s">
+        <v>504</v>
+      </c>
+      <c r="N31" t="s">
+        <v>493</v>
+      </c>
+      <c r="O31" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>B3/$C$2</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>449</v>
-      </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C11" si="0">B4/$C$2</f>
-        <v>0.125</v>
-      </c>
-      <c r="D4">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>449</v>
-      </c>
-      <c r="B5">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="D32">
+        <f>C32/B32</f>
         <v>0.25</v>
       </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="D6">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="D7">
+      <c r="E32">
+        <f>2*A32/B32</f>
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <f>4*E32/B32</f>
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <f>F32/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="I32">
+        <f>A32*C8</f>
+        <v>1.43</v>
+      </c>
+      <c r="J32" s="21">
+        <f>G32*M9</f>
+        <v>0.23369812500000001</v>
+      </c>
+      <c r="M32" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B8">
-        <v>2.5</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="D8">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>449</v>
-      </c>
-      <c r="B10">
-        <v>3.5</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>0.875</v>
-      </c>
-      <c r="D10">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>449</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
+      <c r="C33">
+        <v>0.25</v>
+      </c>
+      <c r="D33">
+        <f>C33/B33</f>
+        <v>0.25</v>
+      </c>
+      <c r="E33">
+        <f>2*A33/B33</f>
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <f>4*E33/B33</f>
+        <v>800</v>
+      </c>
+      <c r="G33">
+        <f>F33/8</f>
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <f>A33*C8</f>
+        <v>14.299999999999999</v>
+      </c>
+      <c r="J33" s="1">
+        <f>G33*M8</f>
+        <v>46.7393</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mass_Props_Simulation/DynamicSims.xlsx
+++ b/Mass_Props_Simulation/DynamicSims.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="524">
   <si>
     <t>X</t>
   </si>
@@ -1594,6 +1594,9 @@
   <si>
     <t>Set Arm Angle LT BLK</t>
   </si>
+  <si>
+    <t>Arm Angle</t>
+  </si>
 </sst>
 </file>
 
@@ -3032,8 +3035,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229956224"/>
-        <c:axId val="229962112"/>
+        <c:axId val="176907008"/>
+        <c:axId val="176908544"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4289,11 +4292,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229965184"/>
-        <c:axId val="229963648"/>
+        <c:axId val="176911872"/>
+        <c:axId val="176910336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229956224"/>
+        <c:axId val="176907008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,12 +4307,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229962112"/>
+        <c:crossAx val="176908544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229962112"/>
+        <c:axId val="176908544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4320,12 +4323,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229956224"/>
+        <c:crossAx val="176907008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229963648"/>
+        <c:axId val="176910336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4335,12 +4338,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229965184"/>
+        <c:crossAx val="176911872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229965184"/>
+        <c:axId val="176911872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,7 +4353,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229963648"/>
+        <c:crossAx val="176910336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4519,11 +4522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229649792"/>
-        <c:axId val="229701120"/>
+        <c:axId val="169739776"/>
+        <c:axId val="169741696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229649792"/>
+        <c:axId val="169739776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -4563,13 +4566,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229701120"/>
+        <c:crossAx val="169741696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="30"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229701120"/>
+        <c:axId val="169741696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,7 +4601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229649792"/>
+        <c:crossAx val="169739776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5466,8 +5469,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229896960"/>
-        <c:axId val="229898496"/>
+        <c:axId val="176777856"/>
+        <c:axId val="176783744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -7126,11 +7129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230245888"/>
-        <c:axId val="230244352"/>
+        <c:axId val="176786816"/>
+        <c:axId val="176785280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229896960"/>
+        <c:axId val="176777856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7141,12 +7144,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229898496"/>
+        <c:crossAx val="176783744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229898496"/>
+        <c:axId val="176783744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7157,12 +7160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229896960"/>
+        <c:crossAx val="176777856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230244352"/>
+        <c:axId val="176785280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,12 +7175,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230245888"/>
+        <c:crossAx val="176786816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230245888"/>
+        <c:axId val="176786816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7187,7 +7190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230244352"/>
+        <c:crossAx val="176785280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8481,11 +8484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228784000"/>
-        <c:axId val="228785536"/>
+        <c:axId val="177018368"/>
+        <c:axId val="177019904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228784000"/>
+        <c:axId val="177018368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8496,12 +8499,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228785536"/>
+        <c:crossAx val="177019904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228785536"/>
+        <c:axId val="177019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8512,7 +8515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228784000"/>
+        <c:crossAx val="177018368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9127,8 +9130,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230114432"/>
-        <c:axId val="230115968"/>
+        <c:axId val="177185536"/>
+        <c:axId val="177187072"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9424,11 +9427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230123392"/>
-        <c:axId val="230121856"/>
+        <c:axId val="177190400"/>
+        <c:axId val="177188864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230114432"/>
+        <c:axId val="177185536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9439,12 +9442,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230115968"/>
+        <c:crossAx val="177187072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230115968"/>
+        <c:axId val="177187072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9455,12 +9458,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230114432"/>
+        <c:crossAx val="177185536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230121856"/>
+        <c:axId val="177188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9470,12 +9473,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230123392"/>
+        <c:crossAx val="177190400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230123392"/>
+        <c:axId val="177190400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9485,7 +9488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230121856"/>
+        <c:crossAx val="177188864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9611,11 +9614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230390400"/>
-        <c:axId val="230404480"/>
+        <c:axId val="177641728"/>
+        <c:axId val="179240960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230390400"/>
+        <c:axId val="177641728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9626,12 +9629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230404480"/>
+        <c:crossAx val="179240960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230404480"/>
+        <c:axId val="179240960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9642,14 +9645,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230390400"/>
+        <c:crossAx val="177641728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9799,11 +9801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230769408"/>
-        <c:axId val="230770944"/>
+        <c:axId val="179257728"/>
+        <c:axId val="179259264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230769408"/>
+        <c:axId val="179257728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9814,12 +9816,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230770944"/>
+        <c:crossAx val="179259264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230770944"/>
+        <c:axId val="179259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9830,7 +9832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230769408"/>
+        <c:crossAx val="179257728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9966,11 +9968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230783616"/>
-        <c:axId val="230785408"/>
+        <c:axId val="179288320"/>
+        <c:axId val="179302400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230783616"/>
+        <c:axId val="179288320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9981,12 +9983,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230785408"/>
+        <c:crossAx val="179302400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230785408"/>
+        <c:axId val="179302400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9997,14 +9999,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230783616"/>
+        <c:crossAx val="179288320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10459,11 +10460,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="24518656"/>
-        <c:axId val="24512768"/>
+        <c:axId val="177713920"/>
+        <c:axId val="177715840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24518656"/>
+        <c:axId val="177713920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10493,12 +10494,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24512768"/>
+        <c:crossAx val="177715840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24512768"/>
+        <c:axId val="177715840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10509,7 +10510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24518656"/>
+        <c:crossAx val="177713920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20457,11 +20458,12 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
@@ -20470,6 +20472,9 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>514</v>
+      </c>
+      <c r="B1" t="s">
+        <v>523</v>
       </c>
       <c r="D1" t="s">
         <v>519</v>
